--- a/model_table.xlsx
+++ b/model_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Documents\SMU\Stats\StatsSAScode\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A01660B0-AB78-4FD3-BC7A-01532471E360}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67754469-007F-43A4-BAEA-0693AD98895F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="30915" windowHeight="15945" xr2:uid="{612A969C-C578-445C-99FC-08BFF3A714FB}"/>
+    <workbookView xWindow="25740" yWindow="2183" windowWidth="9780" windowHeight="13110" xr2:uid="{612A969C-C578-445C-99FC-08BFF3A714FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -207,15 +207,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -236,9 +241,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +561,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -588,7 +593,7 @@
       <c r="C3" s="1">
         <v>0.92410000000000003</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>861471900000</v>
       </c>
       <c r="E3" s="7">
@@ -628,13 +633,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="9">
-        <v>0.89129999999999998</v>
-      </c>
-      <c r="D6" s="10">
-        <v>1111594000000</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.15562999999999999</v>
+        <v>0.8931</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1083074000000</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.15520999999999999</v>
       </c>
     </row>
   </sheetData>
